--- a/accounting.xlsx
+++ b/accounting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение 1" sheetId="4" r:id="rId1"/>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView topLeftCell="A2" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
